--- a/DB/demo.xlsx
+++ b/DB/demo.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Ngày</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>20/10/2017</t>
-  </si>
-  <si>
     <t>SP001</t>
   </si>
   <si>
@@ -35,13 +32,41 @@
   </si>
   <si>
     <t>SP003</t>
+  </si>
+  <si>
+    <t>SP004</t>
+  </si>
+  <si>
+    <t>SP005</t>
+  </si>
+  <si>
+    <t>Thứ giao hàng</t>
+  </si>
+  <si>
+    <t>Giá sản phẩm</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,13 +74,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,8 +109,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,55 +430,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42951</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A2),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>Thứ 6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42952</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A5),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>Thứ 7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>42953</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A8),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>CHủ nhật</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>42954</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A11),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>Thứ 2</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>42955</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A14),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>Thứ 3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>42956</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A17),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>Thứ 4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>42957</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A20),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>Thứ 5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>42958</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>CHOOSE(WEEKDAY(A23),"CHủ nhật","Thứ 2","Thứ 3","Thứ 4","Thứ 5","Thứ 6","Thứ 7")</f>
+        <v>Thứ 6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>